--- a/biology/Botanique/Cyperus/Cyperus.xlsx
+++ b/biology/Botanique/Cyperus/Cyperus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyperus est un genre de la famille des Cyperaceae. Il regroupe des plantes communément appelées souchet. Ce sont des plantes aquatiques, souvent originaires des régions tropicales et subtropicales, mais on en trouve aussi dans les pays tempérés. Il compte 400 espèces qui, pour la plupart, poussent en terrain marécageux. Le plus connu est le célèbre papyrus, plante importante pour les Égyptiens, qui en faisaient des feuilles pour écrire.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon[réf. nécessaire]
 Cyperus albostriatus - Souchet diffus (C'est une plante gracile de couleur vert clair brillant, donnant des petites fleurs d'un brun très pâle. Ses tiges mesurent entre 25 et 50 cm de haut.)
